--- a/targets.xlsx
+++ b/targets.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>名称</t>
   </si>
@@ -53,7 +53,10 @@
     <t>组</t>
   </si>
   <si>
-    <t>标签</t>
+    <t>标签1</t>
+  </si>
+  <si>
+    <t>标签2</t>
   </si>
   <si>
     <t>说明</t>
@@ -68,7 +71,10 @@
     <t>中国站点</t>
   </si>
   <si>
-    <t>国内:green:百度</t>
+    <t>国内:green</t>
+  </si>
+  <si>
+    <t>百度:pink</t>
   </si>
   <si>
     <t>测试百度可达性</t>
@@ -110,7 +116,7 @@
     <t>www.qcloud.com</t>
   </si>
   <si>
-    <t>云服务:green:腾讯</t>
+    <t>云服务:green</t>
   </si>
   <si>
     <t>腾讯云官网</t>
@@ -125,6 +131,9 @@
     <t>云服务:green:阿里</t>
   </si>
   <si>
+    <t>腾讯:pink</t>
+  </si>
+  <si>
     <t>阿里云官网</t>
   </si>
   <si>
@@ -134,7 +143,10 @@
     <t>www.bilibili.com</t>
   </si>
   <si>
-    <t>视频:green:bilibili</t>
+    <t>视频:green</t>
+  </si>
+  <si>
+    <t>bilibili:pink</t>
   </si>
   <si>
     <t>哔哩哔哩视频站</t>
@@ -1102,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1118,11 +1130,11 @@
     <col min="6" max="6" width="33.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,13 +1165,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>60</v>
@@ -1177,21 +1192,24 @@
         <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>45</v>
@@ -1209,21 +1227,21 @@
         <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>90</v>
@@ -1241,21 +1259,21 @@
         <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>60</v>
@@ -1273,21 +1291,24 @@
         <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
@@ -1305,21 +1326,24 @@
         <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>60</v>
@@ -1337,13 +1361,16 @@
         <v>64</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
